--- a/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>406517</v>
+        <v>401914</v>
       </c>
       <c r="D2" t="n">
-        <v>563443264</v>
+        <v>548370962</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D3" t="n">
-        <v>429654</v>
+        <v>404666</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D4" t="n">
-        <v>771901</v>
+        <v>739056</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1205</v>
+        <v>1180</v>
       </c>
       <c r="D9" t="n">
-        <v>2445633</v>
+        <v>2258931</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>152485</v>
+        <v>149971</v>
       </c>
       <c r="D11" t="n">
-        <v>298236107</v>
+        <v>279649567</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D12" t="n">
-        <v>502302</v>
+        <v>468873</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>80320</v>
+        <v>78975</v>
       </c>
       <c r="D13" t="n">
-        <v>156159623</v>
+        <v>146774176</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4418</v>
+        <v>4396</v>
       </c>
       <c r="D17" t="n">
-        <v>6800849</v>
+        <v>6667785</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10262</v>
+        <v>10155</v>
       </c>
       <c r="D22" t="n">
-        <v>17412866</v>
+        <v>16851101</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>96750</v>
+        <v>95487</v>
       </c>
       <c r="D24" t="n">
-        <v>130094120</v>
+        <v>125913996</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D29" t="n">
-        <v>705351</v>
+        <v>625455</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>41501</v>
+        <v>40778</v>
       </c>
       <c r="D30" t="n">
-        <v>78178917</v>
+        <v>72748095</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" t="n">
-        <v>115964</v>
+        <v>106812</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>38166</v>
+        <v>28166</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15088</v>
+        <v>14814</v>
       </c>
       <c r="D33" t="n">
-        <v>28257517</v>
+        <v>26391462</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="D36" t="n">
-        <v>2682924</v>
+        <v>2655361</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2650</v>
+        <v>2625</v>
       </c>
       <c r="D38" t="n">
-        <v>4311957</v>
+        <v>4159120</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>119274</v>
+        <v>117767</v>
       </c>
       <c r="D39" t="n">
-        <v>161654290</v>
+        <v>156394411</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D41" t="n">
-        <v>155334</v>
+        <v>153834</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1232</v>
+        <v>1206</v>
       </c>
       <c r="D45" t="n">
-        <v>2229632</v>
+        <v>2030510</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>57472</v>
+        <v>56231</v>
       </c>
       <c r="D47" t="n">
-        <v>109686001</v>
+        <v>100388271</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D48" t="n">
-        <v>119662</v>
+        <v>99662</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>12212</v>
+        <v>11959</v>
       </c>
       <c r="D49" t="n">
-        <v>23363002</v>
+        <v>21538578</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="D51" t="n">
-        <v>2319882</v>
+        <v>2288387</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3374</v>
+        <v>3346</v>
       </c>
       <c r="D54" t="n">
-        <v>5390098</v>
+        <v>5259172</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>86179</v>
+        <v>85033</v>
       </c>
       <c r="D55" t="n">
-        <v>119042368</v>
+        <v>114868078</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" t="n">
-        <v>103636</v>
+        <v>93636</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>24500</v>
+        <v>14500</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D61" t="n">
-        <v>940484</v>
+        <v>875740</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>36496</v>
+        <v>35803</v>
       </c>
       <c r="D63" t="n">
-        <v>69948838</v>
+        <v>64874249</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D64" t="n">
-        <v>135614</v>
+        <v>104948</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>14742</v>
+        <v>14458</v>
       </c>
       <c r="D66" t="n">
-        <v>27945319</v>
+        <v>25985505</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1557</v>
+        <v>1550</v>
       </c>
       <c r="D68" t="n">
-        <v>2398863</v>
+        <v>2371074</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2179</v>
+        <v>2154</v>
       </c>
       <c r="D72" t="n">
-        <v>3595616</v>
+        <v>3486270</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>25835</v>
+        <v>25572</v>
       </c>
       <c r="D74" t="n">
-        <v>36852221</v>
+        <v>35891209</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D76" t="n">
-        <v>69891</v>
+        <v>59891</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D77" t="n">
-        <v>146431</v>
+        <v>136431</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>10094</v>
+        <v>9897</v>
       </c>
       <c r="D78" t="n">
-        <v>20279964</v>
+        <v>18819532</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6903</v>
+        <v>6780</v>
       </c>
       <c r="D80" t="n">
-        <v>13614295</v>
+        <v>12709567</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D81" t="n">
-        <v>985956</v>
+        <v>961532</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D82" t="n">
-        <v>730182</v>
+        <v>719274</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3498,10 +3498,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>175817</v>
+        <v>173721</v>
       </c>
       <c r="D83" t="n">
-        <v>238593187</v>
+        <v>231486719</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D84" t="n">
-        <v>212662</v>
+        <v>197081</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3574,10 +3574,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D85" t="n">
-        <v>231384</v>
+        <v>197840</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="D87" t="n">
-        <v>1208040</v>
+        <v>1129749</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>80649</v>
+        <v>79320</v>
       </c>
       <c r="D89" t="n">
-        <v>149792381</v>
+        <v>139968188</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D90" t="n">
-        <v>358732</v>
+        <v>319015</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>38366</v>
+        <v>37707</v>
       </c>
       <c r="D92" t="n">
-        <v>70796576</v>
+        <v>65986948</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3712</v>
+        <v>3661</v>
       </c>
       <c r="D94" t="n">
-        <v>8713636</v>
+        <v>8337782</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4074</v>
+        <v>4047</v>
       </c>
       <c r="D96" t="n">
-        <v>6664877</v>
+        <v>6501885</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>41704</v>
+        <v>41510</v>
       </c>
       <c r="D97" t="n">
-        <v>59697247</v>
+        <v>58965133</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>10401</v>
+        <v>10339</v>
       </c>
       <c r="D101" t="n">
-        <v>17090943</v>
+        <v>16730430</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>9687</v>
+        <v>9644</v>
       </c>
       <c r="D103" t="n">
-        <v>15386046</v>
+        <v>15197282</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D105" t="n">
-        <v>944682</v>
+        <v>934682</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D106" t="n">
-        <v>983952</v>
+        <v>982452</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>17836</v>
+        <v>17775</v>
       </c>
       <c r="D107" t="n">
-        <v>35867577</v>
+        <v>35467766</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4067</v>
+        <v>4060</v>
       </c>
       <c r="D110" t="n">
-        <v>8743566</v>
+        <v>8688326</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4600,10 +4600,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5856</v>
+        <v>5841</v>
       </c>
       <c r="D112" t="n">
-        <v>12866808</v>
+        <v>12744979</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D115" t="n">
-        <v>733125</v>
+        <v>723125</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>179735</v>
+        <v>177338</v>
       </c>
       <c r="D117" t="n">
-        <v>245145049</v>
+        <v>236925142</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4828,10 +4828,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D118" t="n">
-        <v>53833</v>
+        <v>52233</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D119" t="n">
-        <v>141041</v>
+        <v>131041</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1330</v>
+        <v>1297</v>
       </c>
       <c r="D121" t="n">
-        <v>2761420</v>
+        <v>2515289</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>68689</v>
+        <v>67458</v>
       </c>
       <c r="D123" t="n">
-        <v>132732507</v>
+        <v>123546423</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5056,10 +5056,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D124" t="n">
-        <v>391077</v>
+        <v>342379</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5132,10 +5132,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>37178</v>
+        <v>36543</v>
       </c>
       <c r="D126" t="n">
-        <v>71681485</v>
+        <v>67171728</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5170,10 +5170,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="D127" t="n">
-        <v>2426794</v>
+        <v>2359029</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5322,10 +5322,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3402</v>
+        <v>3372</v>
       </c>
       <c r="D131" t="n">
-        <v>5757952</v>
+        <v>5608572</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5398,10 +5398,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>734493</v>
+        <v>725898</v>
       </c>
       <c r="D133" t="n">
-        <v>1117516473</v>
+        <v>1084747691</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5436,10 +5436,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D134" t="n">
-        <v>198665</v>
+        <v>188665</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5474,10 +5474,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D135" t="n">
-        <v>617782</v>
+        <v>586542</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5550,10 +5550,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D137" t="n">
-        <v>61164</v>
+        <v>51164</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2198</v>
+        <v>2149</v>
       </c>
       <c r="D138" t="n">
-        <v>5496668</v>
+        <v>5094614</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5626,10 +5626,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D139" t="n">
-        <v>166681</v>
+        <v>156681</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5664,10 +5664,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>285693</v>
+        <v>281725</v>
       </c>
       <c r="D140" t="n">
-        <v>565955359</v>
+        <v>536835956</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5702,10 +5702,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="D141" t="n">
-        <v>2609747</v>
+        <v>2405527</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5740,10 +5740,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D142" t="n">
-        <v>210140</v>
+        <v>180140</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5778,10 +5778,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>270288</v>
+        <v>266629</v>
       </c>
       <c r="D143" t="n">
-        <v>528676920</v>
+        <v>503860762</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D145" t="n">
-        <v>139620</v>
+        <v>129620</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3373</v>
+        <v>3347</v>
       </c>
       <c r="D146" t="n">
-        <v>5308990</v>
+        <v>5192473</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5930,10 +5930,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D147" t="n">
-        <v>24133</v>
+        <v>14133</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -6006,10 +6006,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>10309</v>
+        <v>10217</v>
       </c>
       <c r="D149" t="n">
-        <v>18027183</v>
+        <v>17477392</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6120,10 +6120,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>52919</v>
+        <v>52757</v>
       </c>
       <c r="D152" t="n">
-        <v>72594051</v>
+        <v>72119232</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6196,10 +6196,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D154" t="n">
-        <v>72619</v>
+        <v>62619</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6348,10 +6348,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>16090</v>
+        <v>16060</v>
       </c>
       <c r="D158" t="n">
-        <v>24954548</v>
+        <v>24793760</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6424,10 +6424,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>4426</v>
+        <v>4416</v>
       </c>
       <c r="D160" t="n">
-        <v>6747281</v>
+        <v>6693402</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6652,10 +6652,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>22343</v>
+        <v>22179</v>
       </c>
       <c r="D166" t="n">
-        <v>31731512</v>
+        <v>31191988</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6804,10 +6804,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>9438</v>
+        <v>9324</v>
       </c>
       <c r="D170" t="n">
-        <v>16594695</v>
+        <v>15847758</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>6738</v>
+        <v>6671</v>
       </c>
       <c r="D172" t="n">
-        <v>11575198</v>
+        <v>11181777</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6956,10 +6956,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D174" t="n">
-        <v>481434</v>
+        <v>471434</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D175" t="n">
-        <v>656442</v>
+        <v>638175</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -7070,10 +7070,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>31357</v>
+        <v>31246</v>
       </c>
       <c r="D177" t="n">
-        <v>70497431</v>
+        <v>69637134</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -7146,10 +7146,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3133</v>
+        <v>3124</v>
       </c>
       <c r="D179" t="n">
-        <v>7015840</v>
+        <v>6944881</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -7184,10 +7184,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D180" t="n">
-        <v>920679</v>
+        <v>910679</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7298,10 +7298,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D183" t="n">
-        <v>451087</v>
+        <v>441087</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -7336,10 +7336,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>109988</v>
+        <v>108412</v>
       </c>
       <c r="D184" t="n">
-        <v>151178803</v>
+        <v>145380630</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7412,10 +7412,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D186" t="n">
-        <v>184148</v>
+        <v>160610</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7526,10 +7526,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="D189" t="n">
-        <v>1697888</v>
+        <v>1593987</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -7602,10 +7602,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>44457</v>
+        <v>43487</v>
       </c>
       <c r="D191" t="n">
-        <v>87616313</v>
+        <v>80179336</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>17762</v>
+        <v>17375</v>
       </c>
       <c r="D193" t="n">
-        <v>34693045</v>
+        <v>32009244</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -7716,10 +7716,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D194" t="n">
-        <v>16725</v>
+        <v>15322</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7754,10 +7754,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="D195" t="n">
-        <v>2131685</v>
+        <v>2070988</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -7830,10 +7830,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2403</v>
+        <v>2373</v>
       </c>
       <c r="D197" t="n">
-        <v>3957414</v>
+        <v>3801888</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -7906,10 +7906,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>294051</v>
+        <v>290407</v>
       </c>
       <c r="D199" t="n">
-        <v>396021123</v>
+        <v>384491088</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7944,10 +7944,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D200" t="n">
-        <v>178194</v>
+        <v>176916</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7982,10 +7982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D201" t="n">
-        <v>367685</v>
+        <v>337562</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -8134,10 +8134,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1178</v>
+        <v>1152</v>
       </c>
       <c r="D205" t="n">
-        <v>2216366</v>
+        <v>2033117</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -8210,10 +8210,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>110827</v>
+        <v>108622</v>
       </c>
       <c r="D207" t="n">
-        <v>210537236</v>
+        <v>194289839</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8248,10 +8248,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D208" t="n">
-        <v>323687</v>
+        <v>292112</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -8324,10 +8324,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>43649</v>
+        <v>42799</v>
       </c>
       <c r="D210" t="n">
-        <v>82121595</v>
+        <v>76174365</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8400,10 +8400,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D212" t="n">
-        <v>26454</v>
+        <v>26114</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -8438,10 +8438,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>5927</v>
+        <v>5888</v>
       </c>
       <c r="D213" t="n">
-        <v>9474186</v>
+        <v>9271944</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8552,10 +8552,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>7084</v>
+        <v>7015</v>
       </c>
       <c r="D216" t="n">
-        <v>11315073</v>
+        <v>10965617</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -8666,10 +8666,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>332095</v>
+        <v>328218</v>
       </c>
       <c r="D219" t="n">
-        <v>444457472</v>
+        <v>432384436</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -8704,10 +8704,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D220" t="n">
-        <v>236374</v>
+        <v>234375</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -8742,10 +8742,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D221" t="n">
-        <v>485576</v>
+        <v>475946</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -8932,10 +8932,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="D226" t="n">
-        <v>1596858</v>
+        <v>1513638</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -9008,10 +9008,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>123300</v>
+        <v>121202</v>
       </c>
       <c r="D228" t="n">
-        <v>236542812</v>
+        <v>221354347</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -9046,10 +9046,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D229" t="n">
-        <v>378947</v>
+        <v>328947</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -9122,10 +9122,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>68552</v>
+        <v>67401</v>
       </c>
       <c r="D231" t="n">
-        <v>130818482</v>
+        <v>122717941</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -9160,10 +9160,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D232" t="n">
-        <v>109313</v>
+        <v>106985</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -9198,10 +9198,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D233" t="n">
-        <v>28660</v>
+        <v>27160</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -9236,10 +9236,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>5359</v>
+        <v>5325</v>
       </c>
       <c r="D234" t="n">
-        <v>8223100</v>
+        <v>8037821</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -9312,10 +9312,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D236" t="n">
-        <v>24078</v>
+        <v>14078</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -9388,10 +9388,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>8971</v>
+        <v>8896</v>
       </c>
       <c r="D238" t="n">
-        <v>14677372</v>
+        <v>14294550</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>132256</v>
+        <v>130597</v>
       </c>
       <c r="D241" t="n">
-        <v>180037136</v>
+        <v>174416879</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -9578,10 +9578,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D243" t="n">
-        <v>190050</v>
+        <v>184307</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -9692,10 +9692,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="D246" t="n">
-        <v>1503040</v>
+        <v>1338222</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -9768,10 +9768,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>63850</v>
+        <v>62551</v>
       </c>
       <c r="D248" t="n">
-        <v>122141064</v>
+        <v>112357328</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>16865</v>
+        <v>16529</v>
       </c>
       <c r="D250" t="n">
-        <v>31896873</v>
+        <v>29540884</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9882,10 +9882,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D251" t="n">
-        <v>21529</v>
+        <v>18335</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -9920,10 +9920,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>2103</v>
+        <v>2086</v>
       </c>
       <c r="D252" t="n">
-        <v>3273259</v>
+        <v>3196363</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -9996,10 +9996,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>3544</v>
+        <v>3517</v>
       </c>
       <c r="D254" t="n">
-        <v>5637837</v>
+        <v>5505520</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -10034,10 +10034,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>332347</v>
+        <v>328162</v>
       </c>
       <c r="D255" t="n">
-        <v>460392856</v>
+        <v>447109432</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -10110,10 +10110,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D257" t="n">
-        <v>547192</v>
+        <v>523747</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -10148,10 +10148,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D258" t="n">
-        <v>78455</v>
+        <v>69705</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -10300,10 +10300,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1270</v>
+        <v>1242</v>
       </c>
       <c r="D262" t="n">
-        <v>2996083</v>
+        <v>2758276</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -10376,10 +10376,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>128391</v>
+        <v>126031</v>
       </c>
       <c r="D264" t="n">
-        <v>257954385</v>
+        <v>240500456</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D265" t="n">
-        <v>439104</v>
+        <v>371986</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -10452,10 +10452,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D266" t="n">
-        <v>50500</v>
+        <v>40500</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -10490,10 +10490,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>91427</v>
+        <v>89810</v>
       </c>
       <c r="D267" t="n">
-        <v>181572799</v>
+        <v>170623232</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -10566,10 +10566,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2861</v>
+        <v>2835</v>
       </c>
       <c r="D269" t="n">
-        <v>4506467</v>
+        <v>4398764</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -10642,10 +10642,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D271" t="n">
-        <v>45234</v>
+        <v>36730</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -10680,10 +10680,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>7322</v>
+        <v>7248</v>
       </c>
       <c r="D272" t="n">
-        <v>12470578</v>
+        <v>12078393</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>401914</v>
+        <v>408306</v>
       </c>
       <c r="D2" t="n">
-        <v>548370962</v>
+        <v>568151943</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D3" t="n">
-        <v>404666</v>
+        <v>414335</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D4" t="n">
-        <v>739056</v>
+        <v>772334</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1180</v>
+        <v>1200</v>
       </c>
       <c r="D9" t="n">
-        <v>2258931</v>
+        <v>2426956</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>70451</v>
+        <v>90451</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>149971</v>
+        <v>152977</v>
       </c>
       <c r="D11" t="n">
-        <v>279649567</v>
+        <v>301211491</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D12" t="n">
-        <v>468873</v>
+        <v>490373</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>78975</v>
+        <v>80444</v>
       </c>
       <c r="D13" t="n">
-        <v>146774176</v>
+        <v>156698535</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" t="n">
-        <v>98071</v>
+        <v>99307</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4396</v>
+        <v>4414</v>
       </c>
       <c r="D17" t="n">
-        <v>6667785</v>
+        <v>6762172</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D20" t="n">
-        <v>151035</v>
+        <v>171035</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10155</v>
+        <v>10245</v>
       </c>
       <c r="D22" t="n">
-        <v>16851101</v>
+        <v>17310251</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>95487</v>
+        <v>97229</v>
       </c>
       <c r="D24" t="n">
-        <v>125913996</v>
+        <v>131204741</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D29" t="n">
-        <v>625455</v>
+        <v>652726</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>40778</v>
+        <v>41580</v>
       </c>
       <c r="D30" t="n">
-        <v>72748095</v>
+        <v>78454693</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D31" t="n">
-        <v>106812</v>
+        <v>126812</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>14814</v>
+        <v>15122</v>
       </c>
       <c r="D33" t="n">
-        <v>26391462</v>
+        <v>28482306</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1748</v>
+        <v>1769</v>
       </c>
       <c r="D36" t="n">
-        <v>2655361</v>
+        <v>2739286</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2625</v>
+        <v>2645</v>
       </c>
       <c r="D38" t="n">
-        <v>4159120</v>
+        <v>4250581</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>117767</v>
+        <v>119800</v>
       </c>
       <c r="D39" t="n">
-        <v>156394411</v>
+        <v>162875318</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D40" t="n">
-        <v>82981</v>
+        <v>84428</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D41" t="n">
-        <v>153834</v>
+        <v>164500</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1206</v>
+        <v>1228</v>
       </c>
       <c r="D45" t="n">
-        <v>2030510</v>
+        <v>2168088</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>56231</v>
+        <v>57474</v>
       </c>
       <c r="D47" t="n">
-        <v>100388271</v>
+        <v>109268441</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48" t="n">
-        <v>99662</v>
+        <v>101162</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>11959</v>
+        <v>12224</v>
       </c>
       <c r="D49" t="n">
-        <v>21538578</v>
+        <v>23355550</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1564</v>
+        <v>1572</v>
       </c>
       <c r="D51" t="n">
-        <v>2288387</v>
+        <v>2325887</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>8125</v>
+        <v>11750</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3346</v>
+        <v>3385</v>
       </c>
       <c r="D54" t="n">
-        <v>5259172</v>
+        <v>5442239</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>85033</v>
+        <v>86559</v>
       </c>
       <c r="D55" t="n">
-        <v>114868078</v>
+        <v>119694994</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D61" t="n">
-        <v>875740</v>
+        <v>938995</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>35803</v>
+        <v>36623</v>
       </c>
       <c r="D63" t="n">
-        <v>64874249</v>
+        <v>70813721</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>14458</v>
+        <v>14752</v>
       </c>
       <c r="D66" t="n">
-        <v>25985505</v>
+        <v>27944604</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1550</v>
+        <v>1563</v>
       </c>
       <c r="D68" t="n">
-        <v>2371074</v>
+        <v>2453176</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2154</v>
+        <v>2177</v>
       </c>
       <c r="D72" t="n">
-        <v>3486270</v>
+        <v>3598549</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>25572</v>
+        <v>25948</v>
       </c>
       <c r="D74" t="n">
-        <v>35891209</v>
+        <v>37044405</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D75" t="n">
-        <v>52256</v>
+        <v>53075</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>9897</v>
+        <v>10080</v>
       </c>
       <c r="D78" t="n">
-        <v>18819532</v>
+        <v>20165359</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6780</v>
+        <v>6947</v>
       </c>
       <c r="D80" t="n">
-        <v>12709567</v>
+        <v>13786952</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D81" t="n">
-        <v>961532</v>
+        <v>975157</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D82" t="n">
-        <v>719274</v>
+        <v>761705</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3498,10 +3498,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>173721</v>
+        <v>176745</v>
       </c>
       <c r="D83" t="n">
-        <v>231486719</v>
+        <v>240477633</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D84" t="n">
-        <v>197081</v>
+        <v>205856</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3574,10 +3574,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D85" t="n">
-        <v>197840</v>
+        <v>210918</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" t="n">
-        <v>38806</v>
+        <v>40656</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="D87" t="n">
-        <v>1129749</v>
+        <v>1251965</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D88" t="n">
-        <v>19104</v>
+        <v>19187</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>79320</v>
+        <v>80789</v>
       </c>
       <c r="D89" t="n">
-        <v>139968188</v>
+        <v>150477618</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D90" t="n">
-        <v>319015</v>
+        <v>329015</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>37707</v>
+        <v>38376</v>
       </c>
       <c r="D92" t="n">
-        <v>65986948</v>
+        <v>70475594</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3661</v>
+        <v>3722</v>
       </c>
       <c r="D94" t="n">
-        <v>8337782</v>
+        <v>8784662</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4047</v>
+        <v>4087</v>
       </c>
       <c r="D96" t="n">
-        <v>6501885</v>
+        <v>6702997</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>41510</v>
+        <v>41855</v>
       </c>
       <c r="D97" t="n">
-        <v>58965133</v>
+        <v>59956265</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4144,10 +4144,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D100" t="n">
-        <v>67182</v>
+        <v>71404</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>10339</v>
+        <v>10414</v>
       </c>
       <c r="D101" t="n">
-        <v>16730430</v>
+        <v>17138244</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D102" t="n">
-        <v>19000</v>
+        <v>20500</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>9644</v>
+        <v>9710</v>
       </c>
       <c r="D103" t="n">
-        <v>15197282</v>
+        <v>15493398</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D105" t="n">
-        <v>934682</v>
+        <v>935392</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="D106" t="n">
-        <v>982452</v>
+        <v>1032424</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>17775</v>
+        <v>17856</v>
       </c>
       <c r="D107" t="n">
-        <v>35467766</v>
+        <v>35853463</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4060</v>
+        <v>4068</v>
       </c>
       <c r="D110" t="n">
-        <v>8688326</v>
+        <v>8741676</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4600,10 +4600,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5841</v>
+        <v>5864</v>
       </c>
       <c r="D112" t="n">
-        <v>12744979</v>
+        <v>12871460</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4790,10 +4790,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>177338</v>
+        <v>180589</v>
       </c>
       <c r="D117" t="n">
-        <v>236925142</v>
+        <v>246535773</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4828,10 +4828,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D118" t="n">
-        <v>52233</v>
+        <v>58149</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1297</v>
+        <v>1322</v>
       </c>
       <c r="D121" t="n">
-        <v>2515289</v>
+        <v>2708056</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>67458</v>
+        <v>68780</v>
       </c>
       <c r="D123" t="n">
-        <v>123546423</v>
+        <v>132794291</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5056,10 +5056,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D124" t="n">
-        <v>342379</v>
+        <v>372379</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5132,10 +5132,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>36543</v>
+        <v>37322</v>
       </c>
       <c r="D126" t="n">
-        <v>67171728</v>
+        <v>72558372</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5170,10 +5170,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1496</v>
+        <v>1512</v>
       </c>
       <c r="D127" t="n">
-        <v>2359029</v>
+        <v>2437481</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D129" t="n">
-        <v>27500</v>
+        <v>37500</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5322,10 +5322,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3372</v>
+        <v>3418</v>
       </c>
       <c r="D131" t="n">
-        <v>5608572</v>
+        <v>5830643</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D132" t="n">
-        <v>25695</v>
+        <v>28121</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5398,10 +5398,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>725898</v>
+        <v>737799</v>
       </c>
       <c r="D133" t="n">
-        <v>1084747691</v>
+        <v>1127178766</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5474,10 +5474,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D135" t="n">
-        <v>586542</v>
+        <v>611343</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5588,10 +5588,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2149</v>
+        <v>2184</v>
       </c>
       <c r="D138" t="n">
-        <v>5094614</v>
+        <v>5383034</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5626,10 +5626,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D139" t="n">
-        <v>156681</v>
+        <v>186681</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5664,10 +5664,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>281725</v>
+        <v>286490</v>
       </c>
       <c r="D140" t="n">
-        <v>536835956</v>
+        <v>570913632</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5702,10 +5702,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>781</v>
+        <v>799</v>
       </c>
       <c r="D141" t="n">
-        <v>2405527</v>
+        <v>2568352</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5740,10 +5740,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D142" t="n">
-        <v>180140</v>
+        <v>190806</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5778,10 +5778,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>266629</v>
+        <v>271324</v>
       </c>
       <c r="D143" t="n">
-        <v>503860762</v>
+        <v>533161764</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D144" t="n">
-        <v>27823</v>
+        <v>37823</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D145" t="n">
-        <v>129620</v>
+        <v>153362</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3347</v>
+        <v>3366</v>
       </c>
       <c r="D146" t="n">
-        <v>5192473</v>
+        <v>5278475</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -6006,10 +6006,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>10217</v>
+        <v>10331</v>
       </c>
       <c r="D149" t="n">
-        <v>17477392</v>
+        <v>18134928</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6120,10 +6120,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>52757</v>
+        <v>52995</v>
       </c>
       <c r="D152" t="n">
-        <v>72119232</v>
+        <v>72804738</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6196,10 +6196,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D154" t="n">
-        <v>62619</v>
+        <v>63687</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6348,10 +6348,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>16060</v>
+        <v>16096</v>
       </c>
       <c r="D158" t="n">
-        <v>24793760</v>
+        <v>24989114</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>41823</v>
+        <v>51823</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6424,10 +6424,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>4416</v>
+        <v>4432</v>
       </c>
       <c r="D160" t="n">
-        <v>6693402</v>
+        <v>6776244</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6538,10 +6538,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D163" t="n">
-        <v>643507</v>
+        <v>648087</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6614,10 +6614,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D165" t="n">
-        <v>840680</v>
+        <v>847080</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6652,10 +6652,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>22179</v>
+        <v>22620</v>
       </c>
       <c r="D166" t="n">
-        <v>31191988</v>
+        <v>32728715</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6804,10 +6804,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>9324</v>
+        <v>9502</v>
       </c>
       <c r="D170" t="n">
-        <v>15847758</v>
+        <v>16990019</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>6671</v>
+        <v>6771</v>
       </c>
       <c r="D172" t="n">
-        <v>11181777</v>
+        <v>11795221</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6918,10 +6918,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>15310</v>
+        <v>25310</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6956,10 +6956,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D174" t="n">
-        <v>471434</v>
+        <v>473422</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D175" t="n">
-        <v>638175</v>
+        <v>655660</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -7070,10 +7070,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>31246</v>
+        <v>31445</v>
       </c>
       <c r="D177" t="n">
-        <v>69637134</v>
+        <v>71012347</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -7146,10 +7146,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3124</v>
+        <v>3140</v>
       </c>
       <c r="D179" t="n">
-        <v>6944881</v>
+        <v>7064481</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -7184,10 +7184,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D180" t="n">
-        <v>910679</v>
+        <v>940679</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7298,10 +7298,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D183" t="n">
-        <v>441087</v>
+        <v>451087</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -7336,10 +7336,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>108412</v>
+        <v>110525</v>
       </c>
       <c r="D184" t="n">
-        <v>145380630</v>
+        <v>152278645</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7412,10 +7412,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D186" t="n">
-        <v>160610</v>
+        <v>166451</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7526,10 +7526,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>857</v>
+        <v>887</v>
       </c>
       <c r="D189" t="n">
-        <v>1593987</v>
+        <v>1810211</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -7602,10 +7602,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>43487</v>
+        <v>44425</v>
       </c>
       <c r="D191" t="n">
-        <v>80179336</v>
+        <v>87004691</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -7640,10 +7640,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D192" t="n">
-        <v>92299</v>
+        <v>102299</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>17375</v>
+        <v>17732</v>
       </c>
       <c r="D193" t="n">
-        <v>32009244</v>
+        <v>34419636</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -7754,10 +7754,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1404</v>
+        <v>1415</v>
       </c>
       <c r="D195" t="n">
-        <v>2070988</v>
+        <v>2101630</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -7830,10 +7830,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2373</v>
+        <v>2398</v>
       </c>
       <c r="D197" t="n">
-        <v>3801888</v>
+        <v>3924727</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -7906,10 +7906,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>290407</v>
+        <v>295344</v>
       </c>
       <c r="D199" t="n">
-        <v>384491088</v>
+        <v>398991242</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7982,10 +7982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D201" t="n">
-        <v>337562</v>
+        <v>347022</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -8134,10 +8134,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1152</v>
+        <v>1181</v>
       </c>
       <c r="D205" t="n">
-        <v>2033117</v>
+        <v>2206453</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -8210,10 +8210,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>108622</v>
+        <v>110853</v>
       </c>
       <c r="D207" t="n">
-        <v>194289839</v>
+        <v>209888935</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8248,10 +8248,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D208" t="n">
-        <v>292112</v>
+        <v>312112</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -8324,10 +8324,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>42799</v>
+        <v>43651</v>
       </c>
       <c r="D210" t="n">
-        <v>76174365</v>
+        <v>81779022</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8438,10 +8438,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>5888</v>
+        <v>5933</v>
       </c>
       <c r="D213" t="n">
-        <v>9271944</v>
+        <v>9538077</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8552,10 +8552,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>7015</v>
+        <v>7094</v>
       </c>
       <c r="D216" t="n">
-        <v>10965617</v>
+        <v>11390270</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -8666,10 +8666,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>328218</v>
+        <v>333527</v>
       </c>
       <c r="D219" t="n">
-        <v>432384436</v>
+        <v>446980656</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -8704,10 +8704,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D220" t="n">
-        <v>234375</v>
+        <v>240177</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -8742,10 +8742,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D221" t="n">
-        <v>475946</v>
+        <v>491386</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -8932,10 +8932,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="D226" t="n">
-        <v>1513638</v>
+        <v>1643260</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -9008,10 +9008,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>121202</v>
+        <v>123318</v>
       </c>
       <c r="D228" t="n">
-        <v>221354347</v>
+        <v>236218794</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -9046,10 +9046,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D229" t="n">
-        <v>328947</v>
+        <v>358947</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -9122,10 +9122,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>67401</v>
+        <v>68603</v>
       </c>
       <c r="D231" t="n">
-        <v>122717941</v>
+        <v>130727416</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -9236,10 +9236,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>5325</v>
+        <v>5362</v>
       </c>
       <c r="D234" t="n">
-        <v>8037821</v>
+        <v>8189282</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -9274,10 +9274,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D235" t="n">
-        <v>19422</v>
+        <v>20517</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -9312,10 +9312,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D236" t="n">
-        <v>14078</v>
+        <v>15156</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -9388,10 +9388,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>8896</v>
+        <v>8984</v>
       </c>
       <c r="D238" t="n">
-        <v>14294550</v>
+        <v>14726337</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>130597</v>
+        <v>132829</v>
       </c>
       <c r="D241" t="n">
-        <v>174416879</v>
+        <v>181499432</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -9578,10 +9578,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D243" t="n">
-        <v>184307</v>
+        <v>219648</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -9616,10 +9616,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D244" t="n">
-        <v>22128</v>
+        <v>27109</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -9692,10 +9692,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="D246" t="n">
-        <v>1338222</v>
+        <v>1449860</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -9768,10 +9768,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>62551</v>
+        <v>63879</v>
       </c>
       <c r="D248" t="n">
-        <v>112357328</v>
+        <v>122394127</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9806,10 +9806,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D249" t="n">
-        <v>86377</v>
+        <v>96377</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -9844,10 +9844,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>16529</v>
+        <v>16910</v>
       </c>
       <c r="D250" t="n">
-        <v>29540884</v>
+        <v>31909001</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9920,10 +9920,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>2086</v>
+        <v>2102</v>
       </c>
       <c r="D252" t="n">
-        <v>3196363</v>
+        <v>3251203</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -9996,10 +9996,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>3517</v>
+        <v>3547</v>
       </c>
       <c r="D254" t="n">
-        <v>5505520</v>
+        <v>5666689</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -10034,10 +10034,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>328162</v>
+        <v>333903</v>
       </c>
       <c r="D255" t="n">
-        <v>447109432</v>
+        <v>463087742</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -10072,10 +10072,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D256" t="n">
-        <v>311290</v>
+        <v>333769</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -10110,10 +10110,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D257" t="n">
-        <v>523747</v>
+        <v>558689</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -10262,10 +10262,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D261" t="n">
-        <v>24980</v>
+        <v>26480</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -10300,10 +10300,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1242</v>
+        <v>1284</v>
       </c>
       <c r="D262" t="n">
-        <v>2758276</v>
+        <v>3091129</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -10376,10 +10376,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>126031</v>
+        <v>128410</v>
       </c>
       <c r="D264" t="n">
-        <v>240500456</v>
+        <v>257007032</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D265" t="n">
-        <v>371986</v>
+        <v>391986</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -10490,10 +10490,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>89810</v>
+        <v>91527</v>
       </c>
       <c r="D267" t="n">
-        <v>170623232</v>
+        <v>181763893</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -10566,10 +10566,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2835</v>
+        <v>2855</v>
       </c>
       <c r="D269" t="n">
-        <v>4398764</v>
+        <v>4506343</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -10604,10 +10604,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D270" t="n">
-        <v>31240</v>
+        <v>41240</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -10680,10 +10680,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>7248</v>
+        <v>7360</v>
       </c>
       <c r="D272" t="n">
-        <v>12078393</v>
+        <v>12561139</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
